--- a/Timesheet Eclipse.xlsx
+++ b/Timesheet Eclipse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a31e8c8f31ec5ad0/Documents/Duane TimeSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE6EAE6-F307-4E94-9AB9-44A2A5173D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3EE6EAE6-F307-4E94-9AB9-44A2A5173D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925195B3-31C6-49B3-A452-22E840E1AC76}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Compnay</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Adjusted Elaines menu</t>
+  </si>
+  <si>
+    <t>Adjusted Gregories and Isa's approvals</t>
+  </si>
+  <si>
+    <t>Advised Sandra on customer credit batch approval</t>
+  </si>
+  <si>
+    <t>Advised Tashne on a rate for Ultrapolymer.</t>
   </si>
 </sst>
 </file>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D40"/>
+  <dimension ref="A2:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1038,53 @@
         <v>41</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Timesheet Eclipse.xlsx
+++ b/Timesheet Eclipse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a31e8c8f31ec5ad0/Documents/Duane TimeSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3EE6EAE6-F307-4E94-9AB9-44A2A5173D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925195B3-31C6-49B3-A452-22E840E1AC76}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{3EE6EAE6-F307-4E94-9AB9-44A2A5173D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F83B4E9-FE9B-4EE9-82F4-8257075D6C85}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Compnay</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Advised Tashne on a rate for Ultrapolymer.</t>
+  </si>
+  <si>
+    <t>Advised Felicitas on a cost centre</t>
+  </si>
+  <si>
+    <t>Added Karien and Bester on Supplier Auth on SCS</t>
+  </si>
+  <si>
+    <t>Showed Khadija how to add a location</t>
   </si>
 </sst>
 </file>
@@ -259,6 +268,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D44"/>
+  <dimension ref="A2:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1098,48 @@
         <v>44</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
